--- a/data/species_lists/Land- en freshwater molluscs Northern Spain.xlsx
+++ b/data/species_lists/Land- en freshwater molluscs Northern Spain.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WARD\OneDrive - UGent\School\1ste master\sem_2\Project\landsnails-occurrences\data\species_lists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WARD\OneDrive - UGent\School\1ste master\sem_2\Project\landsnails-Spain\data\species_lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="542" documentId="13_ncr:1_{C9372428-8ECE-4D62-B5B2-9E20A3A75ACC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{25C5570D-177A-486A-B383-A861178A909F}"/>
+  <xr:revisionPtr revIDLastSave="550" documentId="13_ncr:1_{C9372428-8ECE-4D62-B5B2-9E20A3A75ACC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{B97F32FC-C1E9-4B9B-8C11-72DA5B1407F1}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="348" yWindow="1632" windowWidth="23040" windowHeight="11076" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="land" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="reference" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">land!$A$1:$H$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">land!$A$1:$I$77</definedName>
     <definedName name="_Toc473819007" localSheetId="0">land!#REF!</definedName>
     <definedName name="_Toc473819010" localSheetId="0">land!#REF!</definedName>
     <definedName name="_Toc473819016" localSheetId="0">land!$B$52</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="278">
   <si>
     <t>Chondrinidae</t>
   </si>
@@ -293,9 +293,6 @@
     <t>Hygromia limbata</t>
   </si>
   <si>
-    <t>Arion rufus/vulgaris</t>
-  </si>
-  <si>
     <t>Mengoana jeschaui</t>
   </si>
   <si>
@@ -413,9 +410,6 @@
     <t>Arion</t>
   </si>
   <si>
-    <t>rufus/vulgaris</t>
-  </si>
-  <si>
     <t>Cepaea</t>
   </si>
   <si>
@@ -647,9 +641,6 @@
     <t>Arionidae</t>
   </si>
   <si>
-    <t>(Linnaeus, 1758)/Moquin-Tandon, 1855</t>
-  </si>
-  <si>
     <t>Clausiliidae</t>
   </si>
   <si>
@@ -867,6 +858,21 @@
   </si>
   <si>
     <t>(Westerlund, 1887)</t>
+  </si>
+  <si>
+    <t>Arion urbiae</t>
+  </si>
+  <si>
+    <t>urbiae</t>
+  </si>
+  <si>
+    <t>de Winter, 1986</t>
+  </si>
+  <si>
+    <t>subgenus</t>
+  </si>
+  <si>
+    <t>Mesarion</t>
   </si>
 </sst>
 </file>
@@ -1240,10 +1246,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:G5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1252,14 +1258,15 @@
     <col min="2" max="2" width="20.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.44140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="2"/>
+    <col min="5" max="5" width="16.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>67</v>
       </c>
@@ -1273,60 +1280,66 @@
         <v>63</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>84</v>
+        <v>273</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F2"/>
-      <c r="G2" s="5" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="F2" t="s">
+        <v>274</v>
+      </c>
+      <c r="G2"/>
+      <c r="H2" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1334,20 +1347,21 @@
         <v>0</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" t="s">
         <v>118</v>
       </c>
-      <c r="E4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F4"/>
-      <c r="G4" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G4"/>
+      <c r="H4" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1355,19 +1369,19 @@
         <v>0</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1375,20 +1389,21 @@
         <v>0</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E6" t="s">
-        <v>129</v>
-      </c>
-      <c r="F6"/>
-      <c r="G6" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G6"/>
+      <c r="H6" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1396,126 +1411,131 @@
         <v>0</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H7" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" t="s">
         <v>34</v>
       </c>
-      <c r="F8"/>
-      <c r="G8" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G8"/>
+      <c r="H8" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G9" t="s">
         <v>143</v>
       </c>
-      <c r="E9" t="s">
-        <v>144</v>
-      </c>
-      <c r="F9" t="s">
-        <v>145</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H9" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E10" t="s">
-        <v>268</v>
-      </c>
-      <c r="F10"/>
-      <c r="G10" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" t="s">
+        <v>265</v>
+      </c>
+      <c r="G10"/>
+      <c r="H10" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F11"/>
-      <c r="G11" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11"/>
+      <c r="H11" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="E12" t="s">
-        <v>134</v>
-      </c>
-      <c r="F12"/>
-      <c r="G12" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" t="s">
+        <v>132</v>
+      </c>
+      <c r="G12"/>
+      <c r="H12" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1528,14 +1548,14 @@
       <c r="D13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1548,36 +1568,37 @@
       <c r="D14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H14" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="E15" t="s">
-        <v>136</v>
-      </c>
-      <c r="F15"/>
-      <c r="G15" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G15"/>
+      <c r="H15" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1585,20 +1606,21 @@
         <v>4</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E16" t="s">
-        <v>149</v>
-      </c>
-      <c r="F16"/>
-      <c r="G16" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16"/>
+      <c r="H16" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1611,14 +1633,14 @@
       <c r="D17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H17" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1626,20 +1648,21 @@
         <v>6</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D18" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" t="s">
         <v>120</v>
       </c>
-      <c r="E18" t="s">
-        <v>121</v>
-      </c>
-      <c r="F18"/>
-      <c r="G18" s="2" t="s">
+      <c r="G18"/>
+      <c r="H18" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1647,20 +1670,21 @@
         <v>28</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E19" t="s">
-        <v>127</v>
-      </c>
-      <c r="F19"/>
-      <c r="G19" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E19" s="6"/>
+      <c r="F19" t="s">
+        <v>125</v>
+      </c>
+      <c r="G19"/>
+      <c r="H19" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1673,15 +1697,16 @@
       <c r="D20" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="6"/>
+      <c r="F20" t="s">
         <v>41</v>
       </c>
-      <c r="F20"/>
-      <c r="G20" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G20"/>
+      <c r="H20" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1694,15 +1719,16 @@
       <c r="D21" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="6"/>
+      <c r="F21" t="s">
         <v>42</v>
       </c>
-      <c r="F21"/>
-      <c r="G21" s="5" t="s">
+      <c r="G21"/>
+      <c r="H21" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1710,22 +1736,23 @@
         <v>28</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="E22" t="s">
-        <v>138</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="E22" s="6"/>
       <c r="F22" t="s">
-        <v>138</v>
-      </c>
-      <c r="G22" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G22" t="s">
+        <v>136</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1733,22 +1760,22 @@
         <v>28</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1756,20 +1783,21 @@
         <v>28</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D24" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" t="s">
         <v>137</v>
       </c>
-      <c r="E24" t="s">
-        <v>139</v>
-      </c>
-      <c r="F24"/>
-      <c r="G24" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G24"/>
+      <c r="H24" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1777,20 +1805,21 @@
         <v>28</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="E25" t="s">
-        <v>162</v>
-      </c>
-      <c r="F25"/>
-      <c r="G25" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" t="s">
+        <v>160</v>
+      </c>
+      <c r="G25"/>
+      <c r="H25" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1798,20 +1827,21 @@
         <v>28</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="E26" t="s">
-        <v>183</v>
-      </c>
-      <c r="F26"/>
-      <c r="G26" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" t="s">
+        <v>181</v>
+      </c>
+      <c r="G26"/>
+      <c r="H26" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1819,20 +1849,21 @@
         <v>28</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E27" t="s">
-        <v>184</v>
-      </c>
-      <c r="F27"/>
-      <c r="G27" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E27" s="6"/>
+      <c r="F27" t="s">
+        <v>182</v>
+      </c>
+      <c r="G27"/>
+      <c r="H27" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1843,17 +1874,18 @@
         <v>81</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E28" t="s">
-        <v>126</v>
-      </c>
-      <c r="F28"/>
-      <c r="G28" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" t="s">
+        <v>124</v>
+      </c>
+      <c r="G28"/>
+      <c r="H28" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1866,15 +1898,16 @@
       <c r="D29" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="6"/>
+      <c r="F29" t="s">
         <v>45</v>
       </c>
-      <c r="F29"/>
-      <c r="G29" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G29"/>
+      <c r="H29" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1887,144 +1920,150 @@
       <c r="D30" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="6"/>
+      <c r="F30" t="s">
         <v>47</v>
       </c>
-      <c r="F30"/>
-      <c r="G30" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="H30" s="5"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G30"/>
+      <c r="H30" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="E31" t="s">
-        <v>159</v>
-      </c>
-      <c r="F31"/>
-      <c r="G31" s="4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" t="s">
+        <v>157</v>
+      </c>
+      <c r="G31"/>
+      <c r="H31" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>83</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E32" t="s">
-        <v>141</v>
-      </c>
-      <c r="F32"/>
-      <c r="G32" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" t="s">
+        <v>139</v>
+      </c>
+      <c r="G32"/>
+      <c r="H32" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E33" t="s">
-        <v>147</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" t="s">
+        <v>145</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="F34"/>
-      <c r="G34" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G34"/>
+      <c r="H34" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="E35" t="s">
-        <v>171</v>
-      </c>
-      <c r="F35"/>
-      <c r="G35" s="5" t="s">
-        <v>234</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" t="s">
+        <v>169</v>
+      </c>
+      <c r="G35"/>
       <c r="H35" s="5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="E36" t="s">
-        <v>174</v>
-      </c>
-      <c r="F36"/>
-      <c r="G36" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" t="s">
+        <v>172</v>
+      </c>
+      <c r="G36"/>
+      <c r="H36" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -2037,120 +2076,122 @@
       <c r="D37" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="6"/>
+      <c r="F37" t="s">
         <v>49</v>
       </c>
-      <c r="F37"/>
-      <c r="G37" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G37"/>
+      <c r="H37" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="E38" t="s">
-        <v>190</v>
-      </c>
-      <c r="F38"/>
-      <c r="G38" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+      <c r="E38" s="6"/>
+      <c r="F38" t="s">
+        <v>188</v>
+      </c>
+      <c r="G38"/>
+      <c r="H38" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C39" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F39"/>
-      <c r="G39" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="H39" s="5"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G39"/>
+      <c r="H39" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C40" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H40" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="F41"/>
-      <c r="G41" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G41"/>
+      <c r="H41" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F42"/>
-      <c r="G42" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G42"/>
+      <c r="H42" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -2158,22 +2199,23 @@
         <v>9</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E43" t="s">
-        <v>157</v>
-      </c>
+      <c r="E43" s="6"/>
       <c r="F43" t="s">
-        <v>157</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+      <c r="G43" t="s">
+        <v>155</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -2186,15 +2228,16 @@
       <c r="D44" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E44" t="s">
-        <v>163</v>
-      </c>
-      <c r="F44"/>
-      <c r="G44" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E44" s="6"/>
+      <c r="F44" t="s">
+        <v>161</v>
+      </c>
+      <c r="G44"/>
+      <c r="H44" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -2207,16 +2250,17 @@
       <c r="D45" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="6"/>
+      <c r="F45" t="s">
         <v>53</v>
       </c>
-      <c r="F45"/>
-      <c r="G45" s="2" t="s">
+      <c r="G45"/>
+      <c r="H45" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H45" s="5"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -2224,21 +2268,22 @@
         <v>11</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E46" t="s">
-        <v>179</v>
-      </c>
-      <c r="F46"/>
-      <c r="G46" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="H46" s="5"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E46" s="6"/>
+      <c r="F46" t="s">
+        <v>177</v>
+      </c>
+      <c r="G46"/>
+      <c r="H46" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -2246,84 +2291,88 @@
         <v>27</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E47" t="s">
-        <v>225</v>
-      </c>
-      <c r="G47" s="2" t="s">
+      <c r="E47" s="6"/>
+      <c r="F47" t="s">
+        <v>222</v>
+      </c>
+      <c r="H47" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H47" s="5"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="E48" t="s">
-        <v>167</v>
-      </c>
-      <c r="F48"/>
-      <c r="G48" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H48" s="5"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" t="s">
+        <v>165</v>
+      </c>
+      <c r="G48"/>
+      <c r="H48" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I48" s="5"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D49" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" t="s">
         <v>166</v>
       </c>
-      <c r="E49" t="s">
-        <v>168</v>
-      </c>
-      <c r="F49"/>
-      <c r="G49" s="2" t="s">
+      <c r="G49"/>
+      <c r="H49" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="E50" t="s">
-        <v>231</v>
-      </c>
-      <c r="F50"/>
-      <c r="G50" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="E50" s="6"/>
+      <c r="F50" t="s">
+        <v>228</v>
+      </c>
+      <c r="G50"/>
+      <c r="H50" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -2336,14 +2385,14 @@
       <c r="D51" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="H51" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -2351,20 +2400,21 @@
         <v>14</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="E52" t="s">
-        <v>152</v>
-      </c>
-      <c r="F52"/>
-      <c r="G52" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+      <c r="E52" s="6"/>
+      <c r="F52" t="s">
+        <v>150</v>
+      </c>
+      <c r="G52"/>
+      <c r="H52" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -2372,41 +2422,43 @@
         <v>14</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="E53" t="s">
-        <v>154</v>
-      </c>
-      <c r="F53"/>
-      <c r="G53" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+      <c r="E53" s="6"/>
+      <c r="F53" t="s">
+        <v>152</v>
+      </c>
+      <c r="G53"/>
+      <c r="H53" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E54" t="s">
-        <v>175</v>
-      </c>
-      <c r="F54"/>
-      <c r="G54" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E54" s="6"/>
+      <c r="F54" t="s">
+        <v>173</v>
+      </c>
+      <c r="G54"/>
+      <c r="H54" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -2419,16 +2471,17 @@
       <c r="D55" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="6"/>
+      <c r="F55" t="s">
         <v>58</v>
       </c>
-      <c r="F55"/>
-      <c r="G55" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="H55" s="5"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G55"/>
+      <c r="H55" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I55" s="5"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -2436,20 +2489,21 @@
         <v>15</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E56" t="s">
-        <v>176</v>
-      </c>
-      <c r="F56"/>
-      <c r="G56" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E56" s="6"/>
+      <c r="F56" t="s">
+        <v>174</v>
+      </c>
+      <c r="G56"/>
+      <c r="H56" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -2462,16 +2516,17 @@
       <c r="D57" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="6"/>
+      <c r="F57" t="s">
         <v>59</v>
       </c>
-      <c r="F57"/>
-      <c r="G57" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="H57" s="5"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G57"/>
+      <c r="H57" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I57" s="5"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -2479,20 +2534,21 @@
         <v>17</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="E58" t="s">
-        <v>178</v>
-      </c>
-      <c r="F58"/>
-      <c r="G58" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E58" s="6"/>
+      <c r="F58" t="s">
+        <v>176</v>
+      </c>
+      <c r="G58"/>
+      <c r="H58" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -2500,20 +2556,21 @@
         <v>18</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="E59" t="s">
-        <v>156</v>
-      </c>
-      <c r="F59"/>
-      <c r="G59" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+      <c r="E59" s="6"/>
+      <c r="F59" t="s">
+        <v>154</v>
+      </c>
+      <c r="G59"/>
+      <c r="H59" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -2521,48 +2578,49 @@
         <v>18</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="E60" t="s">
-        <v>181</v>
-      </c>
-      <c r="F60"/>
-      <c r="G60" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H61" s="5"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H62" s="5"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H64" s="5"/>
-    </row>
-    <row r="66" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G66" s="4"/>
-      <c r="H66" s="5"/>
-    </row>
-    <row r="67" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G67" s="4"/>
-      <c r="H67" s="5"/>
-    </row>
-    <row r="70" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G70" s="4"/>
-    </row>
-    <row r="73" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G73" s="4"/>
-    </row>
-    <row r="74" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="H74" s="5"/>
+        <v>178</v>
+      </c>
+      <c r="E60" s="6"/>
+      <c r="F60" t="s">
+        <v>179</v>
+      </c>
+      <c r="G60"/>
+      <c r="H60" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I61" s="5"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I62" s="5"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I64" s="5"/>
+    </row>
+    <row r="66" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H66" s="4"/>
+      <c r="I66" s="5"/>
+    </row>
+    <row r="67" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H67" s="4"/>
+      <c r="I67" s="5"/>
+    </row>
+    <row r="70" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H70" s="4"/>
+    </row>
+    <row r="73" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H73" s="4"/>
+    </row>
+    <row r="74" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I74" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H77" xr:uid="{31C02EA8-56B5-437F-8B19-12310B905A36}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H60">
+  <autoFilter ref="A1:I77" xr:uid="{31C02EA8-56B5-437F-8B19-12310B905A36}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I60">
     <sortCondition ref="B2:B60"/>
     <sortCondition ref="C2:C60"/>
   </sortState>
@@ -2623,13 +2681,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -2640,7 +2698,7 @@
         <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>76</v>
@@ -2649,7 +2707,7 @@
         <v>77</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -2657,16 +2715,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>2</v>
@@ -2700,16 +2758,16 @@
         <v>22</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>79</v>
       </c>
       <c r="E6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -2717,16 +2775,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -2735,20 +2793,20 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -2756,13 +2814,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -2771,19 +2829,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -2818,7 +2876,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
